--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Users</t>
   </si>
@@ -114,6 +114,42 @@
   </si>
   <si>
     <t>Albania</t>
+  </si>
+  <si>
+    <t>70000016868</t>
+  </si>
+  <si>
+    <t>JnARD+test@Izc.com</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>70000003914</t>
+  </si>
+  <si>
+    <t>swuEB+test@kxL.com</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>70000025840</t>
+  </si>
+  <si>
+    <t>oSacz+test@VCi.com</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>70000003379</t>
+  </si>
+  <si>
+    <t>gXeWX+test@xhu.com</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
   </si>
 </sst>
 </file>
@@ -467,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -622,6 +658,74 @@
         <v>27</v>
       </c>
     </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Users</t>
   </si>
@@ -150,6 +150,33 @@
   </si>
   <si>
     <t>Mauritania</t>
+  </si>
+  <si>
+    <t>70000008066</t>
+  </si>
+  <si>
+    <t>UwLyX+test@RCB.com</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>70000028174</t>
+  </si>
+  <si>
+    <t>yFsOM+test@ZRN.com</t>
+  </si>
+  <si>
+    <t>70000014689</t>
+  </si>
+  <si>
+    <t>bELDl+test@FPP.com</t>
+  </si>
+  <si>
+    <t>70000011098</t>
+  </si>
+  <si>
+    <t>qgsEZ+test@sTT.com</t>
   </si>
 </sst>
 </file>
@@ -503,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -726,6 +753,74 @@
         <v>39</v>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>Users</t>
   </si>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t>qgsEZ+test@sTT.com</t>
+  </si>
+  <si>
+    <t>70000017358</t>
+  </si>
+  <si>
+    <t>uxnvH+test@ogJ.com</t>
+  </si>
+  <si>
+    <t>70000019235</t>
+  </si>
+  <si>
+    <t>qUImP+test@Zcb.com</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>70000027021</t>
+  </si>
+  <si>
+    <t>jtAgW+test@nyb.com</t>
   </si>
 </sst>
 </file>
@@ -530,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -821,6 +842,57 @@
         <v>42</v>
       </c>
     </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolstov/IdeaProjects/cryptApi/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{C9E4F2DA-EA16-AE40-BF7C-200BEC049E66}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6B099569-C5E5-3946-8EA6-3FE4A96F180A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
   <bookViews>
     <workbookView windowHeight="16220" windowWidth="28240" xWindow="280" xr2:uid="{C3B29EDE-F2B4-1647-8B8C-936C0BD7DB3F}" yWindow="460"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="136">
   <si>
     <t>Users</t>
   </si>
@@ -152,31 +152,292 @@
     <t>Mauritania</t>
   </si>
   <si>
-    <t>70000008066</t>
-  </si>
-  <si>
-    <t>UwLyX+test@RCB.com</t>
+    <t>70000010276</t>
+  </si>
+  <si>
+    <t>sfzzw+test@lWm.com</t>
   </si>
   <si>
     <t>Australia</t>
   </si>
   <si>
-    <t>70000028174</t>
-  </si>
-  <si>
-    <t>yFsOM+test@ZRN.com</t>
-  </si>
-  <si>
-    <t>70000014689</t>
-  </si>
-  <si>
-    <t>bELDl+test@FPP.com</t>
-  </si>
-  <si>
-    <t>70000011098</t>
-  </si>
-  <si>
-    <t>qgsEZ+test@sTT.com</t>
+    <t>70000026914</t>
+  </si>
+  <si>
+    <t>KErzs+test@DrP.com</t>
+  </si>
+  <si>
+    <t>eee185b4-92ec-403d-a109-35609855d7ae</t>
+  </si>
+  <si>
+    <t>70000014130</t>
+  </si>
+  <si>
+    <t>gTuZn+test@ftW.com</t>
+  </si>
+  <si>
+    <t>ecda2d8e-38a4-4f65-ab29-5e4814401e18</t>
+  </si>
+  <si>
+    <t>70000010403</t>
+  </si>
+  <si>
+    <t>ToBIj+test@Aks.com</t>
+  </si>
+  <si>
+    <t>f9811224-caa2-4019-84a4-1ef68f034386</t>
+  </si>
+  <si>
+    <t>70000001288</t>
+  </si>
+  <si>
+    <t>ZeCib+test@KSG.com</t>
+  </si>
+  <si>
+    <t>70000028413</t>
+  </si>
+  <si>
+    <t>TFJti+test@dDR.com</t>
+  </si>
+  <si>
+    <t>70000024032</t>
+  </si>
+  <si>
+    <t>uMTzd+test@rEE.com</t>
+  </si>
+  <si>
+    <t>70000001890</t>
+  </si>
+  <si>
+    <t>Sopbc+test@mqy.com</t>
+  </si>
+  <si>
+    <t>70000021421</t>
+  </si>
+  <si>
+    <t>mExUR+test@BPl.com</t>
+  </si>
+  <si>
+    <t>70000021538</t>
+  </si>
+  <si>
+    <t>hWkxK+test@DuI.com</t>
+  </si>
+  <si>
+    <t>70000012625</t>
+  </si>
+  <si>
+    <t>JpGiK+test@QPx.com</t>
+  </si>
+  <si>
+    <t>70000008050</t>
+  </si>
+  <si>
+    <t>wiUmT+test@DQC.com</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>70000027169</t>
+  </si>
+  <si>
+    <t>JLtBD+test@ZYO.com</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>70000005951</t>
+  </si>
+  <si>
+    <t>bjuuK+test@IBI.com</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>70000028769</t>
+  </si>
+  <si>
+    <t>NNlOa+test@Zlp.com</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>70000005490</t>
+  </si>
+  <si>
+    <t>PpXOp+test@FhQ.com</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>70000022690</t>
+  </si>
+  <si>
+    <t>WlUoT+test@jJK.com</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>70000014673</t>
+  </si>
+  <si>
+    <t>afqAA+test@jjg.com</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>70000004247</t>
+  </si>
+  <si>
+    <t>uTYOw+test@LmN.com</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>70000019241</t>
+  </si>
+  <si>
+    <t>Jsjxc+test@Hes.com</t>
+  </si>
+  <si>
+    <t>70000001456</t>
+  </si>
+  <si>
+    <t>NxRra+test@JOY.com</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>70000027673</t>
+  </si>
+  <si>
+    <t>pEaMG+test@KGN.com</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>70000027493</t>
+  </si>
+  <si>
+    <t>Ropjl+test@WFt.com</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>70000014467</t>
+  </si>
+  <si>
+    <t>rYElr+test@vyS.com</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>70000028265</t>
+  </si>
+  <si>
+    <t>vhdHG+test@wEY.com</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>70000021254</t>
+  </si>
+  <si>
+    <t>yqkAu+test@ooY.com</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>70000004490</t>
+  </si>
+  <si>
+    <t>KQbqR+test@aTw.com</t>
+  </si>
+  <si>
+    <t>70000003923</t>
+  </si>
+  <si>
+    <t>UPGDz+test@owQ.com</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>70000001099</t>
+  </si>
+  <si>
+    <t>hTlZw+test@EkI.com</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>70000015972</t>
+  </si>
+  <si>
+    <t>DsWDR+test@LTm.com</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>70000025779</t>
+  </si>
+  <si>
+    <t>BjOLv+test@DzU.com</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>70000016434</t>
+  </si>
+  <si>
+    <t>WkRvX+test@bcA.com</t>
+  </si>
+  <si>
+    <t>70000020946</t>
+  </si>
+  <si>
+    <t>IIvBm+test@sOt.com</t>
+  </si>
+  <si>
+    <t>70000027448</t>
+  </si>
+  <si>
+    <t>AkmWF+test@kkI.com</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>70000020165</t>
+  </si>
+  <si>
+    <t>krKSv+test@IXu.com</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>70000024700</t>
+  </si>
+  <si>
+    <t>tShnR+test@oei.com</t>
   </si>
 </sst>
 </file>
@@ -530,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,14 +803,15 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.5" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="8.1640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -566,7 +828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -583,7 +845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -600,7 +862,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -617,7 +879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -634,7 +896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
@@ -651,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -668,7 +930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -685,7 +947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -702,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -719,7 +981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -736,7 +998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -753,7 +1015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -770,7 +1032,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>6</v>
       </c>
@@ -786,16 +1048,19 @@
       <c r="F15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -803,22 +1068,572 @@
       <c r="F16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>42</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="194">
   <si>
     <t>Users</t>
   </si>
@@ -438,6 +438,180 @@
   </si>
   <si>
     <t>tShnR+test@oei.com</t>
+  </si>
+  <si>
+    <t>70000002811</t>
+  </si>
+  <si>
+    <t>sZAaB+test@XyY.com</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>70000028935</t>
+  </si>
+  <si>
+    <t>QNbQM+test@tIr.com</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>70000020201</t>
+  </si>
+  <si>
+    <t>mCwGP+test@WnR.com</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>70000007717</t>
+  </si>
+  <si>
+    <t>epiQr+test@uMv.com</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>70000007794</t>
+  </si>
+  <si>
+    <t>dYHKm+test@wjS.com</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>70000006471</t>
+  </si>
+  <si>
+    <t>uHaXS+test@ccs.com</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>70000026437</t>
+  </si>
+  <si>
+    <t>rveiW+test@FUz.com</t>
+  </si>
+  <si>
+    <t>70000000550</t>
+  </si>
+  <si>
+    <t>cuDOc+test@Lld.com</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>70000027008</t>
+  </si>
+  <si>
+    <t>gBACY+test@LXE.com</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>70000011184</t>
+  </si>
+  <si>
+    <t>qBnfX+test@WXs.com</t>
+  </si>
+  <si>
+    <t>70000028898</t>
+  </si>
+  <si>
+    <t>ZQXBZ+test@PBF.com</t>
+  </si>
+  <si>
+    <t>70000015349</t>
+  </si>
+  <si>
+    <t>CPFgy+test@wMu.com</t>
+  </si>
+  <si>
+    <t>70000017072</t>
+  </si>
+  <si>
+    <t>fZkWO+test@vyg.com</t>
+  </si>
+  <si>
+    <t>70000013858</t>
+  </si>
+  <si>
+    <t>gghEj+test@lda.com</t>
+  </si>
+  <si>
+    <t>70000025991</t>
+  </si>
+  <si>
+    <t>tFhdg+test@cBb.com</t>
+  </si>
+  <si>
+    <t>70000022779</t>
+  </si>
+  <si>
+    <t>QJolG+test@Jpa.com</t>
+  </si>
+  <si>
+    <t>70000024436</t>
+  </si>
+  <si>
+    <t>vDzGx+test@SSo.com</t>
+  </si>
+  <si>
+    <t>70000028082</t>
+  </si>
+  <si>
+    <t>FtlID+test@Mza.com</t>
+  </si>
+  <si>
+    <t>70000009972</t>
+  </si>
+  <si>
+    <t>PsIsM+test@RyD.com</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>70000020903</t>
+  </si>
+  <si>
+    <t>LdBTS+test@OBs.com</t>
+  </si>
+  <si>
+    <t>70000000350</t>
+  </si>
+  <si>
+    <t>PQGKt+test@VML.com</t>
+  </si>
+  <si>
+    <t>70000007829</t>
+  </si>
+  <si>
+    <t>ODOQr+test@poE.com</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>70000002807</t>
+  </si>
+  <si>
+    <t>OEtvL+test@OzL.com</t>
+  </si>
+  <si>
+    <t>70000011662</t>
+  </si>
+  <si>
+    <t>cKjBN+test@xSZ.com</t>
   </si>
 </sst>
 </file>
@@ -791,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G17"/>
@@ -1636,6 +1810,414 @@
         <v>100</v>
       </c>
     </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>149</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62" t="s">
+        <v>169</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>192</v>
+      </c>
+      <c r="D73" t="s">
+        <v>193</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="223">
   <si>
     <t>Users</t>
   </si>
@@ -612,6 +612,93 @@
   </si>
   <si>
     <t>cKjBN+test@xSZ.com</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>70000016930</t>
+  </si>
+  <si>
+    <t>fJUGR+test@QUE.com</t>
+  </si>
+  <si>
+    <t>70000023280</t>
+  </si>
+  <si>
+    <t>cPVBI+test@EnN.com</t>
+  </si>
+  <si>
+    <t>70000020910</t>
+  </si>
+  <si>
+    <t>lNUKj+test@zez.com</t>
+  </si>
+  <si>
+    <t>70000014055</t>
+  </si>
+  <si>
+    <t>SctRi+test@MWW.com</t>
+  </si>
+  <si>
+    <t>70000022662</t>
+  </si>
+  <si>
+    <t>Mznte+test@eRI.com</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>70000000075</t>
+  </si>
+  <si>
+    <t>ZbaYq+test@Gha.com</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>70000003377</t>
+  </si>
+  <si>
+    <t>SagPQ+test@OaY.com</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>70000012537</t>
+  </si>
+  <si>
+    <t>fEjpl+test@ROK.com</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>70000010966</t>
+  </si>
+  <si>
+    <t>fRXLL+test@mmt.com</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>70000024340</t>
+  </si>
+  <si>
+    <t>gtuvH+test@PmZ.com</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>70000003311</t>
+  </si>
+  <si>
+    <t>EPhQr+test@XRP.com</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G17"/>
@@ -2218,6 +2305,193 @@
         <v>133</v>
       </c>
     </row>
+    <row r="74">
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" t="s">
+        <v>198</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>203</v>
+      </c>
+      <c r="D78" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>212</v>
+      </c>
+      <c r="D81" t="s">
+        <v>213</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="s">
+        <v>194</v>
+      </c>
+      <c r="C83" t="s">
+        <v>218</v>
+      </c>
+      <c r="D83" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>221</v>
+      </c>
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="251">
   <si>
     <t>Users</t>
   </si>
@@ -699,6 +699,90 @@
   </si>
   <si>
     <t>EPhQr+test@XRP.com</t>
+  </si>
+  <si>
+    <t>70000015336</t>
+  </si>
+  <si>
+    <t>GMHcL+test@eLR.com</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>32ac9b8e-9805-423f-91e1-a509c5469f58</t>
+  </si>
+  <si>
+    <t>70000015669</t>
+  </si>
+  <si>
+    <t>OQtQl+test@sZE.com</t>
+  </si>
+  <si>
+    <t>5fa26bfa-be25-4b14-bf9a-b8c44e29b2c3</t>
+  </si>
+  <si>
+    <t>70000013414</t>
+  </si>
+  <si>
+    <t>ttyvr+test@kPa.com</t>
+  </si>
+  <si>
+    <t>9b6752aa-a025-44c1-b4cd-ed5128b90678</t>
+  </si>
+  <si>
+    <t>70000013832</t>
+  </si>
+  <si>
+    <t>qWvnv+test@GzQ.com</t>
+  </si>
+  <si>
+    <t>8d02ede1-c5a3-4c6e-ad53-0442cd57a6a2</t>
+  </si>
+  <si>
+    <t>70000024227</t>
+  </si>
+  <si>
+    <t>BzYwU+test@yZD.com</t>
+  </si>
+  <si>
+    <t>7dd3fbc2-26c1-4225-876e-460cb69ab93a</t>
+  </si>
+  <si>
+    <t>70000012640</t>
+  </si>
+  <si>
+    <t>iSzht+test@les.com</t>
+  </si>
+  <si>
+    <t>998a544c-99ae-47f4-8dbf-73c01fb9f121</t>
+  </si>
+  <si>
+    <t>70000029657</t>
+  </si>
+  <si>
+    <t>THEzZ+test@aYk.com</t>
+  </si>
+  <si>
+    <t>1709da9b-ca1f-4cba-a095-c4d540f0c115</t>
+  </si>
+  <si>
+    <t>70000016215</t>
+  </si>
+  <si>
+    <t>hrCfd+test@hkt.com</t>
+  </si>
+  <si>
+    <t>ab4588fc-003e-4912-92f0-eb480a388bcc</t>
+  </si>
+  <si>
+    <t>70000022926</t>
+  </si>
+  <si>
+    <t>FsskH+test@URZ.com</t>
+  </si>
+  <si>
+    <t>2a31eacf-1f4f-489f-98ce-1133476083df</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G17"/>
@@ -2492,6 +2576,186 @@
         <v>189</v>
       </c>
     </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>225</v>
+      </c>
+      <c r="G85" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>227</v>
+      </c>
+      <c r="D86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>225</v>
+      </c>
+      <c r="G86" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" t="s">
+        <v>231</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>225</v>
+      </c>
+      <c r="G87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" t="s">
+        <v>234</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" t="s">
+        <v>237</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>225</v>
+      </c>
+      <c r="G89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" t="s">
+        <v>239</v>
+      </c>
+      <c r="D90" t="s">
+        <v>240</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>225</v>
+      </c>
+      <c r="G90" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" t="s">
+        <v>243</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>225</v>
+      </c>
+      <c r="G91" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>245</v>
+      </c>
+      <c r="D92" t="s">
+        <v>246</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>225</v>
+      </c>
+      <c r="G92" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>248</v>
+      </c>
+      <c r="D93" t="s">
+        <v>249</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="275">
   <si>
     <t>Users</t>
   </si>
@@ -783,6 +783,78 @@
   </si>
   <si>
     <t>2a31eacf-1f4f-489f-98ce-1133476083df</t>
+  </si>
+  <si>
+    <t>70000010405</t>
+  </si>
+  <si>
+    <t>rtsQt+test@eCC.com</t>
+  </si>
+  <si>
+    <t>d3599dd1-8d46-4368-ac2d-64c00c793238</t>
+  </si>
+  <si>
+    <t>70000026338</t>
+  </si>
+  <si>
+    <t>enIVs+test@jPD.com</t>
+  </si>
+  <si>
+    <t>03c56590-7105-465f-838c-1fc13cff55ee</t>
+  </si>
+  <si>
+    <t>70000023769</t>
+  </si>
+  <si>
+    <t>mYWnD+test@Xcx.com</t>
+  </si>
+  <si>
+    <t>ada625d4-4560-4197-a89a-fb8558d39ee8</t>
+  </si>
+  <si>
+    <t>70000013681</t>
+  </si>
+  <si>
+    <t>jnLDx+test@DSp.com</t>
+  </si>
+  <si>
+    <t>123925cd-8c15-476e-966f-cff96e4fb815</t>
+  </si>
+  <si>
+    <t>70000026273</t>
+  </si>
+  <si>
+    <t>arWYv+test@nxM.com</t>
+  </si>
+  <si>
+    <t>4589e129-20ea-44fe-aee5-59c4e3ac029e</t>
+  </si>
+  <si>
+    <t>70000004202</t>
+  </si>
+  <si>
+    <t>IOfJI+test@sec.com</t>
+  </si>
+  <si>
+    <t>bc97e438-b880-4c4d-8152-db529dd5911c</t>
+  </si>
+  <si>
+    <t>70000006139</t>
+  </si>
+  <si>
+    <t>mmJtp+test@Gfo.com</t>
+  </si>
+  <si>
+    <t>7f73fad2-e5d2-4b11-9398-de5ba748e6cd</t>
+  </si>
+  <si>
+    <t>70000021884</t>
+  </si>
+  <si>
+    <t>aUklu+test@kVB.com</t>
+  </si>
+  <si>
+    <t>78993d80-b9d4-49c1-9f7e-48fd45af9311</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G17"/>
@@ -2756,6 +2828,166 @@
         <v>250</v>
       </c>
     </row>
+    <row r="94">
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>251</v>
+      </c>
+      <c r="D94" t="s">
+        <v>252</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>225</v>
+      </c>
+      <c r="G94" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>254</v>
+      </c>
+      <c r="D95" t="s">
+        <v>255</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>42</v>
+      </c>
+      <c r="G95" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>257</v>
+      </c>
+      <c r="D96" t="s">
+        <v>258</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>225</v>
+      </c>
+      <c r="G96" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>260</v>
+      </c>
+      <c r="D97" t="s">
+        <v>261</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>42</v>
+      </c>
+      <c r="G97" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>263</v>
+      </c>
+      <c r="D98" t="s">
+        <v>264</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>42</v>
+      </c>
+      <c r="G98" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>266</v>
+      </c>
+      <c r="D99" t="s">
+        <v>267</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>225</v>
+      </c>
+      <c r="G99" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>269</v>
+      </c>
+      <c r="D100" t="s">
+        <v>270</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" t="s">
+        <v>273</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>225</v>
+      </c>
+      <c r="G101" t="s">
+        <v>274</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="226">
   <si>
     <t>Users</t>
   </si>
@@ -699,6 +699,15 @@
   </si>
   <si>
     <t>EPhQr+test@XRP.com</t>
+  </si>
+  <si>
+    <t>70000003601</t>
+  </si>
+  <si>
+    <t>HHzlF+test@cyi.com</t>
+  </si>
+  <si>
+    <t>88cf812c-5512-4c40-9a3d-95170336f46a</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G17"/>
@@ -2492,6 +2501,26 @@
         <v>189</v>
       </c>
     </row>
+    <row r="85">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="229">
   <si>
     <t>Users</t>
   </si>
@@ -708,6 +708,15 @@
   </si>
   <si>
     <t>88cf812c-5512-4c40-9a3d-95170336f46a</t>
+  </si>
+  <si>
+    <t>70000011912</t>
+  </si>
+  <si>
+    <t>ILnaB+test@Saa.com</t>
+  </si>
+  <si>
+    <t>171d16b9-1c19-43e7-87fe-0c383db5fc57</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G17"/>
@@ -2521,6 +2530,26 @@
         <v>225</v>
       </c>
     </row>
+    <row r="86">
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>42</v>
+      </c>
+      <c r="G86" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/reports/users.xlsx
+++ b/reports/users.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="235">
   <si>
     <t>Users</t>
   </si>
@@ -717,6 +717,24 @@
   </si>
   <si>
     <t>171d16b9-1c19-43e7-87fe-0c383db5fc57</t>
+  </si>
+  <si>
+    <t>70000023093</t>
+  </si>
+  <si>
+    <t>aSqwL+test@fym.com</t>
+  </si>
+  <si>
+    <t>0c26ba09-8d53-4390-bf7b-1b0d3f2dea9c</t>
+  </si>
+  <si>
+    <t>70000004301</t>
+  </si>
+  <si>
+    <t>ZwkpO+test@AfK.com</t>
+  </si>
+  <si>
+    <t>ed2b4763-0043-40ec-ab4c-edb5fbce6b4b</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD98A14D-B425-C945-9937-30EF5E4DE984}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G17"/>
@@ -2550,6 +2568,46 @@
         <v>228</v>
       </c>
     </row>
+    <row r="87">
+      <c r="B87" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" t="s">
+        <v>229</v>
+      </c>
+      <c r="D87" t="s">
+        <v>230</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" t="s">
+        <v>232</v>
+      </c>
+      <c r="D88" t="s">
+        <v>233</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" t="s">
+        <v>234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
